--- a/BetterNames-v2-Armor.xlsx
+++ b/BetterNames-v2-Armor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA\Public\Play\ComputerGames\MyGames\Morrowind\Plugins-Archive\MyPlugins\Better-Names\Better-Names\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DATA\Public\Dev\Source\GIT\Better-Morrowind-Sorting-Names\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9818" uniqueCount="3134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9816" uniqueCount="3134">
   <si>
     <t>ARMO</t>
   </si>
@@ -10251,7 +10251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11299,12 +11301,9 @@
       <c r="J23">
         <v>60</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M23" t="str">
         <f>VLOOKUP(B23,'Armor-MODS'!B:C,2,FALSE)</f>
@@ -11346,12 +11345,9 @@
       <c r="J24">
         <v>60</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M24" t="str">
         <f>VLOOKUP(B24,'Armor-MODS'!B:C,2,FALSE)</f>
